--- a/premios.xlsx
+++ b/premios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Desktop\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D96AD93-3542-4A3A-AE18-B4A3F7567EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABA095F-5DDF-4884-BA30-7D829A424B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AE992D3E-408B-4E70-9826-F366105B9E70}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,22 @@
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -136,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +161,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +480,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,11 +544,47 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G2" s="3">
+      <c r="A2" s="4">
+        <v>7728</v>
+      </c>
+      <c r="B2" s="4">
+        <v>7728</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7728</v>
+      </c>
+      <c r="D2" s="4">
+        <v>7728</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7728</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7728</v>
+      </c>
+      <c r="G2" s="5">
         <v>7864</v>
       </c>
-      <c r="I2" s="3">
+      <c r="H2" s="4">
+        <v>7728</v>
+      </c>
+      <c r="I2" s="5">
         <v>7864</v>
+      </c>
+      <c r="J2" s="4">
+        <v>7728</v>
+      </c>
+      <c r="K2" s="4">
+        <v>7728</v>
+      </c>
+      <c r="L2" s="4">
+        <v>7728</v>
+      </c>
+      <c r="M2" s="4">
+        <v>7728</v>
+      </c>
+      <c r="N2" s="4">
+        <v>7728</v>
       </c>
     </row>
   </sheetData>

--- a/premios.xlsx
+++ b/premios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Desktop\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABA095F-5DDF-4884-BA30-7D829A424B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCCFE84B-E0DB-4F92-BD3D-F80785F020A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AE992D3E-408B-4E70-9826-F366105B9E70}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>ifc_base</t>
   </si>
@@ -67,13 +67,34 @@
   </si>
   <si>
     <t>kai_tak</t>
+  </si>
+  <si>
+    <t>0450</t>
+  </si>
+  <si>
+    <t>0125</t>
+  </si>
+  <si>
+    <t>5158</t>
+  </si>
+  <si>
+    <t>0276</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>0338</t>
+  </si>
+  <si>
+    <t>0913</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,22 +114,6 @@
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -152,17 +157,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,26 +480,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3BD0A-BC11-41C2-B7EC-56BD908A621C}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.5">
@@ -544,48 +547,654 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
+        <v>3740</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1418</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5158</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5158</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>5158</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5884</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>5884</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3167</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3167</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7864</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7864</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>7864</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>7864</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7995</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1015</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2211</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2211</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>7728</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B13" s="3">
         <v>7728</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
         <v>7728</v>
       </c>
-      <c r="D2" s="4">
+      <c r="G13" s="3">
         <v>7728</v>
       </c>
-      <c r="E2" s="4">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
         <v>7728</v>
       </c>
-      <c r="F2" s="4">
+      <c r="J13" s="3">
         <v>7728</v>
       </c>
-      <c r="G2" s="5">
-        <v>7864</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="K13" s="3">
         <v>7728</v>
       </c>
-      <c r="I2" s="5">
-        <v>7864</v>
-      </c>
-      <c r="J2" s="4">
-        <v>7728</v>
-      </c>
-      <c r="K2" s="4">
-        <v>7728</v>
-      </c>
-      <c r="L2" s="4">
-        <v>7728</v>
-      </c>
-      <c r="M2" s="4">
-        <v>7728</v>
-      </c>
-      <c r="N2" s="4">
-        <v>7728</v>
-      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>4784</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4784</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>4784</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1047</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>7704</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1090</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>6781</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>6550</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6550</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>6550</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>3644</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
+        <v>3664</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1510</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>4304</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>4998</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4998</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>8615</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>3233</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3233</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1116</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1116</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>1116</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1116</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>8308</v>
+      </c>
+      <c r="B32" s="3">
+        <v>8308</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
+        <v>8308</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>7352</v>
+      </c>
+      <c r="B33" s="3">
+        <v>7352</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/premios.xlsx
+++ b/premios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Desktop\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCCFE84B-E0DB-4F92-BD3D-F80785F020A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4860A127-955D-47DE-BB8F-15059C258512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AE992D3E-408B-4E70-9826-F366105B9E70}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>ifc_base</t>
   </si>
@@ -88,6 +88,84 @@
   </si>
   <si>
     <t>0913</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>3167</t>
+  </si>
+  <si>
+    <t>5884</t>
+  </si>
+  <si>
+    <t>7864</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>7728</t>
+  </si>
+  <si>
+    <t>6550</t>
+  </si>
+  <si>
+    <t>3344</t>
+  </si>
+  <si>
+    <t>4998</t>
+  </si>
+  <si>
+    <t>3233</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>8308</t>
+  </si>
+  <si>
+    <t>7352</t>
+  </si>
+  <si>
+    <t>3740</t>
+  </si>
+  <si>
+    <t>1418</t>
+  </si>
+  <si>
+    <t>7995</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>4784</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>7704</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>6781</t>
+  </si>
+  <si>
+    <t>3644</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>4304</t>
+  </si>
+  <si>
+    <t>8615</t>
   </si>
 </sst>
 </file>
@@ -483,7 +561,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,8 +625,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>3740</v>
+      <c r="A2" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -583,8 +661,8 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1418</v>
+      <c r="A4" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -601,18 +679,18 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>5158</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5158</v>
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>5158</v>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -623,16 +701,16 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5884</v>
+      <c r="A6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>5884</v>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -643,11 +721,11 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>3167</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3167</v>
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -663,22 +741,22 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7864</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7864</v>
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>7864</v>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3">
-        <v>7864</v>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -687,8 +765,8 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7995</v>
+      <c r="A9" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -705,8 +783,8 @@
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1015</v>
+      <c r="A10" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -723,11 +801,11 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2211</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2211</v>
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -744,14 +822,14 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -765,48 +843,48 @@
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>7728</v>
-      </c>
-      <c r="B13" s="3">
-        <v>7728</v>
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3">
-        <v>7728</v>
-      </c>
-      <c r="G13" s="3">
-        <v>7728</v>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>7728</v>
-      </c>
-      <c r="J13" s="3">
-        <v>7728</v>
-      </c>
-      <c r="K13" s="3">
-        <v>7728</v>
+      <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>4784</v>
-      </c>
-      <c r="B14" s="3">
-        <v>4784</v>
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>4784</v>
+      <c r="G14" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -817,8 +895,8 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>1047</v>
+      <c r="A15" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -835,8 +913,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>7704</v>
+      <c r="A16" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -871,8 +949,8 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1090</v>
+      <c r="A18" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -889,8 +967,8 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>6781</v>
+      <c r="A19" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -907,18 +985,18 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>6550</v>
-      </c>
-      <c r="B20" s="3">
-        <v>6550</v>
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3">
-        <v>6550</v>
+      <c r="G20" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -929,16 +1007,16 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>3644</v>
+      <c r="A21" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3">
-        <v>3664</v>
+      <c r="G21" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -949,8 +1027,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>1510</v>
+      <c r="A22" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1013,8 +1091,8 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>4304</v>
+      <c r="A25" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1031,11 +1109,11 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>4998</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4998</v>
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1051,8 +1129,8 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>8615</v>
+      <c r="A27" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1069,11 +1147,11 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>3233</v>
-      </c>
-      <c r="B28" s="3">
-        <v>3233</v>
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1109,11 +1187,11 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>1116</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1116</v>
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1121,11 +1199,11 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3">
-        <v>1116</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1116</v>
+      <c r="I30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1155,18 +1233,18 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>8308</v>
-      </c>
-      <c r="B32" s="3">
-        <v>8308</v>
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3">
-        <v>8308</v>
+      <c r="G32" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1177,11 +1255,11 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>7352</v>
-      </c>
-      <c r="B33" s="3">
-        <v>7352</v>
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>

--- a/premios.xlsx
+++ b/premios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Desktop\infinteflightaerobrasil_atc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4860A127-955D-47DE-BB8F-15059C258512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6705CDBF-970B-4B25-B1EA-730304D8073B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AE992D3E-408B-4E70-9826-F366105B9E70}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
   <si>
     <t>ifc_base</t>
   </si>
@@ -69,110 +69,236 @@
     <t>kai_tak</t>
   </si>
   <si>
+    <t>3740</t>
+  </si>
+  <si>
+    <t>André Siqueira</t>
+  </si>
+  <si>
+    <t>0125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aylton Jd   </t>
+  </si>
+  <si>
+    <t>Bruno Pantoja</t>
+  </si>
+  <si>
+    <t>1418</t>
+  </si>
+  <si>
+    <t>Caio Marcelo</t>
+  </si>
+  <si>
+    <t>5158</t>
+  </si>
+  <si>
+    <t>Charlie Silva</t>
+  </si>
+  <si>
+    <t>5884</t>
+  </si>
+  <si>
+    <t>Cláudio Henrique</t>
+  </si>
+  <si>
+    <t>3167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleverton   </t>
+  </si>
+  <si>
+    <t>7864</t>
+  </si>
+  <si>
+    <t>Dalmo Cabral</t>
+  </si>
+  <si>
+    <t>7995</t>
+  </si>
+  <si>
+    <t>Danilo Kauã</t>
+  </si>
+  <si>
+    <t>0538</t>
+  </si>
+  <si>
+    <t>Elton Mendes</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>Endrel Giovani</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>Fellipe Guimarães</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>Fellipe Eduardo</t>
+  </si>
+  <si>
+    <t>7728</t>
+  </si>
+  <si>
+    <t>Gabriel Flavio</t>
+  </si>
+  <si>
+    <t>4784</t>
+  </si>
+  <si>
+    <t>Gabriel Falci</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>Jean Machado</t>
+  </si>
+  <si>
+    <t>7704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhon Alex   </t>
+  </si>
+  <si>
+    <t>0276</t>
+  </si>
+  <si>
+    <t>Jhonny Willian</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Vitor    </t>
+  </si>
+  <si>
+    <t>8543</t>
+  </si>
+  <si>
+    <t>Jussifran Chaves</t>
+  </si>
+  <si>
+    <t>6781</t>
+  </si>
+  <si>
+    <t>Lucas Mende</t>
+  </si>
+  <si>
+    <t>6550</t>
+  </si>
+  <si>
+    <t>Luiz Fernando Lenza</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>Matheus Oliveira</t>
+  </si>
+  <si>
+    <t>3644</t>
+  </si>
+  <si>
+    <t>Matheus Ferguglia</t>
+  </si>
+  <si>
     <t>0450</t>
   </si>
   <si>
-    <t>0125</t>
-  </si>
-  <si>
-    <t>5158</t>
-  </si>
-  <si>
-    <t>0276</t>
+    <t>Matheus Etges</t>
+  </si>
+  <si>
+    <t>3936</t>
+  </si>
+  <si>
+    <t>Mozart Santos</t>
   </si>
   <si>
     <t>0124</t>
   </si>
   <si>
+    <t xml:space="preserve">Natanael    </t>
+  </si>
+  <si>
+    <t>4304</t>
+  </si>
+  <si>
+    <t>Otávio Perez</t>
+  </si>
+  <si>
+    <t>4998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo          </t>
+  </si>
+  <si>
+    <t>3233</t>
+  </si>
+  <si>
+    <t>Pedro Costa</t>
+  </si>
+  <si>
+    <t>8615</t>
+  </si>
+  <si>
+    <t>Pedro Koachany</t>
+  </si>
+  <si>
+    <t>Pedro Maia</t>
+  </si>
+  <si>
+    <t>Rafael Machado</t>
+  </si>
+  <si>
+    <t>0913</t>
+  </si>
+  <si>
+    <t>Renan Santana</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>Renato Onibene</t>
+  </si>
+  <si>
     <t>0338</t>
   </si>
   <si>
-    <t>0913</t>
-  </si>
-  <si>
-    <t>0058</t>
-  </si>
-  <si>
-    <t>3167</t>
-  </si>
-  <si>
-    <t>5884</t>
-  </si>
-  <si>
-    <t>7864</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>7728</t>
-  </si>
-  <si>
-    <t>6550</t>
-  </si>
-  <si>
-    <t>3344</t>
-  </si>
-  <si>
-    <t>4998</t>
-  </si>
-  <si>
-    <t>3233</t>
-  </si>
-  <si>
-    <t>1116</t>
+    <t xml:space="preserve">Santiago      </t>
   </si>
   <si>
     <t>8308</t>
   </si>
   <si>
+    <t>Thiago Araujo</t>
+  </si>
+  <si>
     <t>7352</t>
   </si>
   <si>
-    <t>3740</t>
-  </si>
-  <si>
-    <t>1418</t>
-  </si>
-  <si>
-    <t>7995</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>4784</t>
-  </si>
-  <si>
-    <t>1047</t>
-  </si>
-  <si>
-    <t>7704</t>
-  </si>
-  <si>
-    <t>1090</t>
-  </si>
-  <si>
-    <t>6781</t>
-  </si>
-  <si>
-    <t>3644</t>
-  </si>
-  <si>
-    <t>1510</t>
-  </si>
-  <si>
-    <t>4304</t>
-  </si>
-  <si>
-    <t>8615</t>
+    <t>Willy Robert</t>
+  </si>
+  <si>
+    <t>aniv_ifab</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +319,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -208,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -231,11 +365,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,6 +389,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,77 +707,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3BD0A-BC11-41C2-B7EC-56BD908A621C}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3"/>
+      <c r="P1" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -641,12 +798,18 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -659,10 +822,14 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -677,21 +844,21 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -699,94 +866,124 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -799,15 +996,19 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -815,22 +1016,26 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -841,51 +1046,53 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -893,48 +1100,80 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -947,12 +1186,16 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -965,12 +1208,18 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -983,21 +1232,21 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1005,19 +1254,23 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1025,12 +1278,16 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1043,117 +1300,161 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>14</v>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>29</v>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1165,13 +1466,15 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>20</v>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>68</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1185,45 +1488,51 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>19</v>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1231,21 +1540,23 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>74</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -1253,26 +1564,176 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/premios.xlsx
+++ b/premios.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23815"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6705CDBF-970B-4B25-B1EA-730304D8073B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{6705CDBF-970B-4B25-B1EA-730304D8073B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6F62A628-C9F5-45C0-999B-E1220A859B62}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AE992D3E-408B-4E70-9826-F366105B9E70}"/>
   </bookViews>
   <sheets>
     <sheet name="premiosifc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>ifc_base</t>
   </si>
@@ -69,236 +81,233 @@
     <t>kai_tak</t>
   </si>
   <si>
+    <t>aniv_ifab</t>
+  </si>
+  <si>
+    <t>André Siqueira</t>
+  </si>
+  <si>
     <t>3740</t>
   </si>
   <si>
-    <t>André Siqueira</t>
+    <t xml:space="preserve">Aylton Jd   </t>
   </si>
   <si>
     <t>0125</t>
   </si>
   <si>
-    <t xml:space="preserve">Aylton Jd   </t>
-  </si>
-  <si>
     <t>Bruno Pantoja</t>
   </si>
   <si>
+    <t>Caio Marcelo</t>
+  </si>
+  <si>
     <t>1418</t>
   </si>
   <si>
-    <t>Caio Marcelo</t>
+    <t>Charlie Silva</t>
   </si>
   <si>
     <t>5158</t>
   </si>
   <si>
-    <t>Charlie Silva</t>
+    <t>Cláudio Henrique</t>
   </si>
   <si>
     <t>5884</t>
   </si>
   <si>
-    <t>Cláudio Henrique</t>
+    <t xml:space="preserve">Cleverton   </t>
   </si>
   <si>
     <t>3167</t>
   </si>
   <si>
-    <t xml:space="preserve">Cleverton   </t>
+    <t>Dalmo Cabral</t>
   </si>
   <si>
     <t>7864</t>
   </si>
   <si>
-    <t>Dalmo Cabral</t>
+    <t>Danilo Kauã</t>
   </si>
   <si>
     <t>7995</t>
   </si>
   <si>
-    <t>Danilo Kauã</t>
+    <t>Elton Mendes</t>
   </si>
   <si>
     <t>0538</t>
   </si>
   <si>
-    <t>Elton Mendes</t>
+    <t>Endrel Giovani</t>
   </si>
   <si>
     <t>1015</t>
   </si>
   <si>
-    <t>Endrel Giovani</t>
+    <t>Fellipe Guimarães</t>
   </si>
   <si>
     <t>2211</t>
   </si>
   <si>
-    <t>Fellipe Guimarães</t>
+    <t>Fellipe Eduardo</t>
   </si>
   <si>
     <t>0058</t>
   </si>
   <si>
-    <t>Fellipe Eduardo</t>
+    <t>Gabriel Flavio</t>
   </si>
   <si>
     <t>7728</t>
   </si>
   <si>
-    <t>Gabriel Flavio</t>
+    <t>Gabriel Falci</t>
   </si>
   <si>
     <t>4784</t>
   </si>
   <si>
-    <t>Gabriel Falci</t>
+    <t>Jean Machado</t>
   </si>
   <si>
     <t>1047</t>
   </si>
   <si>
-    <t>Jean Machado</t>
+    <t xml:space="preserve">Jhon Alex   </t>
   </si>
   <si>
     <t>7704</t>
   </si>
   <si>
-    <t xml:space="preserve">Jhon Alex   </t>
+    <t>Jhonny Willian</t>
   </si>
   <si>
     <t>0276</t>
   </si>
   <si>
-    <t>Jhonny Willian</t>
+    <t xml:space="preserve">João Vitor    </t>
   </si>
   <si>
     <t>1090</t>
   </si>
   <si>
-    <t xml:space="preserve">João Vitor    </t>
+    <t>Jussifran Chaves</t>
   </si>
   <si>
     <t>8543</t>
   </si>
   <si>
-    <t>Jussifran Chaves</t>
+    <t>Lucas Mende</t>
   </si>
   <si>
     <t>6781</t>
   </si>
   <si>
-    <t>Lucas Mende</t>
+    <t>Luiz Fernando Lenza</t>
   </si>
   <si>
     <t>6550</t>
   </si>
   <si>
-    <t>Luiz Fernando Lenza</t>
+    <t>Matheus Oliveira</t>
   </si>
   <si>
     <t>1510</t>
   </si>
   <si>
-    <t>Matheus Oliveira</t>
+    <t>Matheus Ferguglia</t>
   </si>
   <si>
     <t>3644</t>
   </si>
   <si>
-    <t>Matheus Ferguglia</t>
+    <t>Matheus Etges</t>
   </si>
   <si>
     <t>0450</t>
   </si>
   <si>
-    <t>Matheus Etges</t>
+    <t>Mozart Santos</t>
   </si>
   <si>
     <t>3936</t>
   </si>
   <si>
-    <t>Mozart Santos</t>
+    <t xml:space="preserve">Natanael    </t>
   </si>
   <si>
     <t>0124</t>
   </si>
   <si>
-    <t xml:space="preserve">Natanael    </t>
+    <t>Otávio Perez</t>
   </si>
   <si>
     <t>4304</t>
   </si>
   <si>
-    <t>Otávio Perez</t>
+    <t xml:space="preserve">Pablo          </t>
   </si>
   <si>
     <t>4998</t>
   </si>
   <si>
-    <t xml:space="preserve">Pablo          </t>
+    <t>Pedro Costa</t>
   </si>
   <si>
     <t>3233</t>
   </si>
   <si>
-    <t>Pedro Costa</t>
+    <t>Pedro Koachany</t>
   </si>
   <si>
     <t>8615</t>
   </si>
   <si>
-    <t>Pedro Koachany</t>
-  </si>
-  <si>
     <t>Pedro Maia</t>
   </si>
   <si>
     <t>Rafael Machado</t>
   </si>
   <si>
+    <t>Renan Santana</t>
+  </si>
+  <si>
     <t>0913</t>
   </si>
   <si>
-    <t>Renan Santana</t>
+    <t>Renato Onibene</t>
   </si>
   <si>
     <t>1116</t>
   </si>
   <si>
-    <t>Renato Onibene</t>
+    <t xml:space="preserve">Santiago      </t>
   </si>
   <si>
     <t>0338</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago      </t>
+    <t>Thiago Araujo</t>
   </si>
   <si>
     <t>8308</t>
   </si>
   <si>
-    <t>Thiago Araujo</t>
+    <t>Willy Robert</t>
   </si>
   <si>
     <t>7352</t>
-  </si>
-  <si>
-    <t>Willy Robert</t>
-  </si>
-  <si>
-    <t>aniv_ifab</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,7 +420,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -709,9 +718,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3BD0A-BC11-41C2-B7EC-56BD908A621C}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -729,62 +740,62 @@
     <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="25.5">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -796,19 +807,21 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -820,16 +833,18 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -847,12 +862,12 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -869,22 +884,22 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -895,12 +910,12 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -908,28 +923,30 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -944,45 +961,47 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -999,15 +1018,15 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1017,22 +1036,22 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1044,22 +1063,24 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1070,26 +1091,28 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1103,58 +1126,60 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1164,15 +1189,15 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1189,12 +1214,12 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1206,19 +1231,21 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1235,12 +1262,12 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1257,15 +1284,15 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1281,12 +1308,12 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1303,40 +1330,42 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1348,19 +1377,21 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1368,92 +1399,96 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1469,12 +1504,12 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1490,18 +1525,18 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1516,18 +1551,18 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1538,19 +1573,21 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1567,15 +1604,15 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1593,15 +1630,15 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1612,65 +1649,69 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="M35" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M36" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -1680,46 +1721,48 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="M38" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>

--- a/premios.xlsx
+++ b/premios.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi9PrMIZ8Dia4fHyObUAEP9ehQd5w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi69c+2nelC34kj7fSQvFHK6lofyQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,9 @@
     <t>aniv_ifab</t>
   </si>
   <si>
+    <t>olympic</t>
+  </si>
+  <si>
     <t>André Siqueira</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
   </si>
   <si>
     <t>1418</t>
+  </si>
+  <si>
+    <t>Carlos Henrique</t>
   </si>
   <si>
     <t>Charlie Silva</t>
@@ -129,16 +135,22 @@
     <t>1015</t>
   </si>
   <si>
+    <t>Fellipe Eduardo</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
     <t>Fellipe Guimarães</t>
   </si>
   <si>
     <t>2211</t>
   </si>
   <si>
-    <t>Fellipe Eduardo</t>
+    <t>Gabriel Falci</t>
   </si>
   <si>
-    <t>0058</t>
+    <t>4784</t>
   </si>
   <si>
     <t>Gabriel Flavio</t>
@@ -147,10 +159,10 @@
     <t>7728</t>
   </si>
   <si>
-    <t>Gabriel Falci</t>
+    <t>Guilherme Carvalho</t>
   </si>
   <si>
-    <t>4784</t>
+    <t>5375</t>
   </si>
   <si>
     <t xml:space="preserve">Jhon Alex   </t>
@@ -189,7 +201,28 @@
     <t>6550</t>
   </si>
   <si>
+    <t>Marcelo Pessoa</t>
+  </si>
+  <si>
+    <t>6594</t>
+  </si>
+  <si>
     <t>Marllon Sérgio</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>Matheus Etges</t>
+  </si>
+  <si>
+    <t>0450</t>
+  </si>
+  <si>
+    <t>Matheus Ferguglia</t>
+  </si>
+  <si>
+    <t>3644</t>
   </si>
   <si>
     <t>Matheus Oliveira</t>
@@ -198,16 +231,10 @@
     <t>1510</t>
   </si>
   <si>
-    <t>Matheus Ferguglia</t>
+    <t>Matheus Souza</t>
   </si>
   <si>
-    <t>3644</t>
-  </si>
-  <si>
-    <t>Matheus Etges</t>
-  </si>
-  <si>
-    <t>0450</t>
+    <t>6975</t>
   </si>
   <si>
     <t>Mozart Santos</t>
@@ -243,6 +270,9 @@
     <t>Pedro Maia</t>
   </si>
   <si>
+    <t>8998</t>
+  </si>
+  <si>
     <t>Renan Santana</t>
   </si>
   <si>
@@ -267,20 +297,20 @@
     <t>8308</t>
   </si>
   <si>
+    <t>8303</t>
+  </si>
+  <si>
     <t>Willy Robert</t>
   </si>
   <si>
     <t>7352</t>
-  </si>
-  <si>
-    <t>Marcelo Pessoa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -294,6 +324,14 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -311,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -319,6 +357,15 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -552,7 +599,7 @@
     <col customWidth="1" min="17" max="24" width="7.63"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +648,9 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -612,10 +661,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -628,12 +677,12 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -646,10 +695,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -662,14 +711,16 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -680,7 +731,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -708,10 +759,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -737,22 +788,16 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -777,7 +822,9 @@
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -789,14 +836,10 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -813,25 +856,29 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -854,18 +901,12 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
@@ -887,20 +928,30 @@
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -917,9 +968,7 @@
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -927,16 +976,12 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -953,7 +998,9 @@
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -961,11 +1008,11 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
@@ -987,9 +1034,7 @@
       <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1007,7 +1052,9 @@
       <c r="P13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -1063,22 +1110,12 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>42</v>
       </c>
@@ -1123,7 +1160,9 @@
       <c r="P16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1139,16 +1178,28 @@
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="M17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1157,7 +1208,9 @@
       <c r="P17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1167,13 +1220,15 @@
       <c r="X17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1187,7 +1242,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -1213,10 +1268,14 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="P19" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1233,9 +1292,7 @@
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1258,7 +1315,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -1288,7 +1345,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -1302,21 +1359,15 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1326,11 +1377,13 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1356,28 +1409,32 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -1389,34 +1446,26 @@
       <c r="X24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>61</v>
+      <c r="B25" s="4" t="s">
+        <v>62</v>
       </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1428,37 +1477,23 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -1470,35 +1505,25 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -1510,28 +1535,40 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="P28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -1542,28 +1579,32 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>69</v>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
       </c>
-      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>69</v>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>68</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -1576,14 +1617,12 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1594,12 +1633,12 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -1611,11 +1650,11 @@
       <c r="X30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1631,7 +1670,9 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
+      <c r="Q31" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -1642,23 +1683,35 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="P32" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -1687,14 +1740,10 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -1711,37 +1760,29 @@
       <c r="B34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q34" s="2"/>
+      <c r="Q34" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -1764,14 +1805,14 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="M35" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2" t="s">
@@ -1793,28 +1834,20 @@
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -1828,12 +1861,10 @@
       <c r="A37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1860,8 +1891,12 @@
       <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1871,11 +1906,17 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="M38" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
+      <c r="P38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -1885,23 +1926,45 @@
       <c r="X38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="P39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -1911,14 +1974,22 @@
       <c r="X39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -1926,7 +1997,9 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+      <c r="P40" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -1937,23 +2010,37 @@
       <c r="X40" s="2"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="M41" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
+      <c r="P41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -1963,9 +2050,15 @@
       <c r="X41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -26896,6 +26989,110 @@
       <c r="W1000" s="2"/>
       <c r="X1000" s="2"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+    </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+    </row>
+    <row r="1003" ht="15.75" customHeight="1">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+    </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
